--- a/сертификаты.xlsx
+++ b/сертификаты.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>Название компании</t>
   </si>
@@ -63,6 +63,18 @@
   </si>
   <si>
     <t>Российская Федерация, 350000, Краснодарский край, г.Краснодар</t>
+  </si>
+  <si>
+    <t>компания легенд</t>
+  </si>
+  <si>
+    <t>00-00000</t>
+  </si>
+  <si>
+    <t>РФ</t>
+  </si>
+  <si>
+    <t>не действует</t>
   </si>
 </sst>
 </file>
@@ -390,7 +402,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -465,11 +477,24 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="2">
+        <v>37921</v>
+      </c>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">

--- a/сертификаты.xlsx
+++ b/сертификаты.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Название компании</t>
   </si>
@@ -38,37 +38,46 @@
     <t>ИНН</t>
   </si>
   <si>
-    <t>Местоположение</t>
-  </si>
-  <si>
     <t>Дата последнего аудита</t>
   </si>
   <si>
-    <t>АО НижнекамскТехуглерод</t>
-  </si>
-  <si>
-    <t>Действует</t>
-  </si>
-  <si>
-    <t>03-00790</t>
-  </si>
-  <si>
-    <t>Российская Федерация, Татарстан, г.Нижнекамск</t>
-  </si>
-  <si>
-    <t>Пао ГазПромСтрой</t>
-  </si>
-  <si>
-    <t>06-67890</t>
-  </si>
-  <si>
-    <t>Российская Федерация, 350000, Краснодарский край, г.Краснодар</t>
+    <t>"ООО" Булка</t>
+  </si>
+  <si>
+    <t>СПб, ул.Вязовая, 14</t>
+  </si>
+  <si>
+    <t>Стандарт</t>
+  </si>
+  <si>
+    <t>ISO 9001</t>
+  </si>
+  <si>
+    <t>Аккредитация</t>
+  </si>
+  <si>
+    <t>UKAS (IAF)</t>
+  </si>
+  <si>
+    <t>Срок действия сертификата</t>
+  </si>
+  <si>
+    <t>Адрес</t>
+  </si>
+  <si>
+    <t>действующий</t>
+  </si>
+  <si>
+    <t>03-00986</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -99,12 +108,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -387,24 +399,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" zoomScale="118" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.21875" customWidth="1"/>
-    <col min="2" max="2" width="27.77734375" customWidth="1"/>
+    <col min="1" max="2" width="27.77734375" customWidth="1"/>
     <col min="3" max="3" width="22.88671875" customWidth="1"/>
     <col min="4" max="4" width="17.77734375" customWidth="1"/>
-    <col min="5" max="5" width="23.6640625" customWidth="1"/>
-    <col min="6" max="6" width="47.77734375" customWidth="1"/>
-    <col min="7" max="7" width="28.33203125" customWidth="1"/>
+    <col min="5" max="5" width="22" customWidth="1"/>
+    <col min="6" max="6" width="25.109375" customWidth="1"/>
+    <col min="7" max="7" width="15.21875" customWidth="1"/>
+    <col min="8" max="8" width="16.77734375" customWidth="1"/>
+    <col min="9" max="9" width="28.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -418,61 +431,62 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="1">
+        <v>474885885</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1653000123</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="F2" s="2">
         <v>45407</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="G2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="1">
-        <v>2300987654</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="2">
-        <v>44562</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I2" s="3">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+      <c r="F4" s="2"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -480,7 +494,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -488,7 +502,7 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -496,7 +510,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -504,7 +518,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -512,7 +526,7 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -520,7 +534,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -528,7 +542,7 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -536,7 +550,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -544,7 +558,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -552,7 +566,7 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -560,7 +574,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>

--- a/сертификаты.xlsx
+++ b/сертификаты.xlsx
@@ -65,19 +65,16 @@
     <t>Адрес</t>
   </si>
   <si>
-    <t>действующий</t>
-  </si>
-  <si>
     <t>03-00986</t>
+  </si>
+  <si>
+    <t>Действующий</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -108,15 +105,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -402,7 +396,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="118" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -451,10 +445,10 @@
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="D2" s="1">
         <v>474885885</v>
@@ -471,7 +465,7 @@
       <c r="H2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="2">
         <v>45412</v>
       </c>
     </row>

--- a/сертификаты.xlsx
+++ b/сертификаты.xlsx
@@ -41,9 +41,6 @@
     <t>Дата последнего аудита</t>
   </si>
   <si>
-    <t>"ООО" Булка</t>
-  </si>
-  <si>
     <t>СПб, ул.Вязовая, 14</t>
   </si>
   <si>
@@ -69,6 +66,9 @@
   </si>
   <si>
     <t>Действующий</t>
+  </si>
+  <si>
+    <t>ООО "Булка"</t>
   </si>
 </sst>
 </file>
@@ -396,7 +396,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="118" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -425,45 +425,45 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D2" s="1">
         <v>474885885</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F2" s="2">
         <v>45407</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I2" s="2">
         <v>45412</v>

--- a/сертификаты.xlsx
+++ b/сертификаты.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="50">
   <si>
     <t>Название компании</t>
   </si>
@@ -69,6 +69,111 @@
   </si>
   <si>
     <t>ООО "Булка"</t>
+  </si>
+  <si>
+    <t>ООО "ТехИнновации"</t>
+  </si>
+  <si>
+    <t>ООО "ЭкоСтрой"</t>
+  </si>
+  <si>
+    <t>89-34950</t>
+  </si>
+  <si>
+    <t>Москва, ул. Лесная, 15</t>
+  </si>
+  <si>
+    <t>ISO 14001</t>
+  </si>
+  <si>
+    <t>TUV (IAF)</t>
+  </si>
+  <si>
+    <t>89215-79</t>
+  </si>
+  <si>
+    <t>3315-70</t>
+  </si>
+  <si>
+    <t>0010115-23</t>
+  </si>
+  <si>
+    <t>800215-0</t>
+  </si>
+  <si>
+    <t>7402-347</t>
+  </si>
+  <si>
+    <t>89215-03</t>
+  </si>
+  <si>
+    <t>02459-244</t>
+  </si>
+  <si>
+    <t>ЗАО "ЭнергоРесурс"</t>
+  </si>
+  <si>
+    <t>ООО "АгроТех"</t>
+  </si>
+  <si>
+    <t>ООО "АвтоМир"</t>
+  </si>
+  <si>
+    <t>ЗАО "ТрансЛогистика"</t>
+  </si>
+  <si>
+    <t>АО "СтройКом"</t>
+  </si>
+  <si>
+    <t>ООО "ПродуктСервис"</t>
+  </si>
+  <si>
+    <t>ЗАО "ИнженерПроект"</t>
+  </si>
+  <si>
+    <t>Санкт-Петербург, пр. Невский, 78</t>
+  </si>
+  <si>
+    <t>Екатеринбург, ул. Мира, 45</t>
+  </si>
+  <si>
+    <t>Краснодар, ул. Солнечная, 9</t>
+  </si>
+  <si>
+    <t>Казань, пр. Победы, 21</t>
+  </si>
+  <si>
+    <t>Новосибирск, ул. Пушкинская, 17</t>
+  </si>
+  <si>
+    <t>Самара, ул. Заводская, 12</t>
+  </si>
+  <si>
+    <t>Ростов-на-Дону, ул. Советская, 44</t>
+  </si>
+  <si>
+    <t>Воронеж, ул. Ленина, 30</t>
+  </si>
+  <si>
+    <t>ISO 45001</t>
+  </si>
+  <si>
+    <t>ISO 22000</t>
+  </si>
+  <si>
+    <t>ISO 27001</t>
+  </si>
+  <si>
+    <t>ANAB (IAF)</t>
+  </si>
+  <si>
+    <t>DQS (IAF)</t>
+  </si>
+  <si>
+    <t>SAS (IAF)</t>
+  </si>
+  <si>
+    <t>Не действующий</t>
   </si>
 </sst>
 </file>
@@ -108,10 +213,10 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -393,10 +498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="118" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="96" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -404,7 +509,7 @@
     <col min="1" max="2" width="27.77734375" customWidth="1"/>
     <col min="3" max="3" width="22.88671875" customWidth="1"/>
     <col min="4" max="4" width="17.77734375" customWidth="1"/>
-    <col min="5" max="5" width="22" customWidth="1"/>
+    <col min="5" max="5" width="36.77734375" customWidth="1"/>
     <col min="6" max="6" width="25.109375" customWidth="1"/>
     <col min="7" max="7" width="15.21875" customWidth="1"/>
     <col min="8" max="8" width="16.77734375" customWidth="1"/>
@@ -412,7 +517,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -440,8 +545,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:9" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -469,112 +574,442 @@
         <v>45412</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="1"/>
+    <row r="3" spans="1:9" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1234567890</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="2">
+        <v>45795</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="2">
+        <v>46162</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="1">
+        <v>9876543210</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="2">
+        <v>45235</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" s="2">
+        <v>45607</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="A5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="1">
+        <v>5432109876</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="2">
+        <v>46081</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="2">
+        <v>46451</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
+      <c r="A6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="1">
+        <v>6789012345</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="2">
+        <v>45545</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" s="2">
+        <v>45912</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="A7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2468013579</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="2">
+        <v>45275</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I7" s="2">
+        <v>45290</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="A8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1357924680</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="2">
+        <v>45509</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8" s="2">
+        <v>45879</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
+      <c r="A9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1112223334</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="2">
+        <v>45744</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" s="2">
+        <v>46113</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="A10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="1">
+        <v>9870123456</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="2">
+        <v>45122</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" s="2">
+        <v>45496</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
+      <c r="A11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1029384756</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="2">
+        <v>45945</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11" s="2">
+        <v>46313</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/сертификаты.xlsx
+++ b/сертификаты.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>Название компании</t>
   </si>
@@ -69,6 +69,21 @@
   </si>
   <si>
     <t>UKAS (IAF)</t>
+  </si>
+  <si>
+    <t>ИП "Кибернетика"</t>
+  </si>
+  <si>
+    <t>ISO 45001</t>
+  </si>
+  <si>
+    <t>СПб, наб.Кутузова, 30</t>
+  </si>
+  <si>
+    <t>99-37914</t>
+  </si>
+  <si>
+    <t>Не дуйствует</t>
   </si>
 </sst>
 </file>
@@ -393,17 +408,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24.6640625" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="20.109375" customWidth="1"/>
+    <col min="3" max="3" width="20.77734375" customWidth="1"/>
     <col min="4" max="4" width="22" customWidth="1"/>
     <col min="5" max="5" width="18.21875" customWidth="1"/>
     <col min="6" max="6" width="23.5546875" customWidth="1"/>
@@ -470,6 +485,145 @@
         <v>45407</v>
       </c>
     </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="1">
+        <v>111111111</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="2">
+        <v>45323</v>
+      </c>
+      <c r="I3" s="2">
+        <v>45275</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/сертификаты.xlsx
+++ b/сертификаты.xlsx
@@ -24,73 +24,93 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
-  <si>
-    <t>Название компании</t>
-  </si>
-  <si>
-    <t>Статус сертификата</t>
-  </si>
-  <si>
-    <t>Номер сертификата</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="26">
   <si>
     <t>ИНН</t>
   </si>
   <si>
-    <t>Адрес</t>
-  </si>
-  <si>
-    <t>Дата последнего аудита</t>
-  </si>
-  <si>
-    <t>Стандарт</t>
-  </si>
-  <si>
     <t>Аккредитация</t>
   </si>
   <si>
-    <t>Срок действия сертификата</t>
-  </si>
-  <si>
-    <t>ООО "Булка"</t>
-  </si>
-  <si>
-    <t>Действующий</t>
-  </si>
-  <si>
-    <t>03-00986</t>
-  </si>
-  <si>
-    <t>СПб, ул.Вязовая, 14</t>
-  </si>
-  <si>
-    <t>ISO 9001</t>
-  </si>
-  <si>
     <t>UKAS (IAF)</t>
   </si>
   <si>
-    <t>ИП "Кибернетика"</t>
-  </si>
-  <si>
-    <t>ISO 45001</t>
-  </si>
-  <si>
-    <t>СПб, наб.Кутузова, 30</t>
-  </si>
-  <si>
-    <t>99-37914</t>
-  </si>
-  <si>
-    <t>Не дуйствует</t>
+    <t xml:space="preserve">
+Название компании</t>
+  </si>
+  <si>
+    <t>Организационно-правовая форма</t>
+  </si>
+  <si>
+    <t>Критерий сертификации</t>
+  </si>
+  <si>
+    <t>Дата окончания сертификата</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Булка</t>
+  </si>
+  <si>
+    <t>ООО</t>
+  </si>
+  <si>
+    <t>ISO 9001:2015</t>
+  </si>
+  <si>
+    <t>АКОМ им. Н.М.Игнатьева</t>
+  </si>
+  <si>
+    <t>АО</t>
+  </si>
+  <si>
+    <t>ISO 14001:2015</t>
+  </si>
+  <si>
+    <t>Грасис</t>
+  </si>
+  <si>
+    <t>Федеральная служба по аккредитации
+(Росаккредитация)</t>
+  </si>
+  <si>
+    <t>ГОСТ Р ИСО 9001-2015</t>
+  </si>
+  <si>
+    <t>Счетмаш</t>
+  </si>
+  <si>
+    <t>Топливные системы</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Волтайр-Пром</t>
+  </si>
+  <si>
+    <t>Саранский завод Резинотехника (СЗРТ)</t>
+  </si>
+  <si>
+    <t>ОАО</t>
+  </si>
+  <si>
+    <t>СДС «Оборонсертифика»</t>
+  </si>
+  <si>
+    <t>ГOСТ Р ИСО 9001-2015, доп. требования ГОСТ РВ 0015-002-2020</t>
+  </si>
+  <si>
+    <t>Ассоциация по сертификации «Русский Регистр»</t>
+  </si>
+  <si>
+    <t>ISO 45001:2018</t>
+  </si>
+  <si>
+    <t>АРТЕКС</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,16 +119,47 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -116,23 +167,89 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -411,10 +528,10 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="24.6640625" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
@@ -427,204 +544,309 @@
     <col min="9" max="9" width="27.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" ht="27.6">
+      <c r="A1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="6">
+        <v>474885885</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="E2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="1">
-        <v>474885885</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="F2" s="7">
+        <v>45802</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="9">
+        <v>6345011371</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="10">
+        <v>46602</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="9">
+        <v>6345011371</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="2">
-        <v>45412</v>
-      </c>
-      <c r="I2" s="2">
-        <v>45407</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="1">
-        <v>111111111</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="2">
-        <v>45323</v>
-      </c>
-      <c r="I3" s="2">
-        <v>45275</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+      <c r="F4" s="10">
+        <v>46466</v>
+      </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+    <row r="5" spans="1:9">
+      <c r="A5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="9">
+        <v>7743696750</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="10">
+        <v>46448</v>
+      </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+    <row r="6" spans="1:9" ht="52.2" customHeight="1">
+      <c r="A6" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="9">
+        <v>7743696750</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="10">
+        <v>46485</v>
+      </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+    <row r="7" spans="1:9">
+      <c r="A7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="9">
+        <v>4632126284</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="10">
+        <v>46001</v>
+      </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+    <row r="8" spans="1:9">
+      <c r="A8" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="9">
+        <v>7813111341</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="10">
+        <v>46011</v>
+      </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+    <row r="9" spans="1:9">
+      <c r="A9" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="9">
+        <v>3435900531</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="10">
+        <v>46327</v>
+      </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+    <row r="10" spans="1:9" ht="57" customHeight="1">
+      <c r="A10" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="9">
+        <v>1328028538</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="10">
+        <v>46587</v>
+      </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+    <row r="11" spans="1:9" ht="57.6">
+      <c r="A11" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="9">
+        <v>1328028538</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="10">
+        <v>45801</v>
+      </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
+    <row r="12" spans="1:9" ht="43.2">
+      <c r="A12" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="9">
+        <v>7801319747</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="10">
+        <v>45800</v>
+      </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
+    <row r="13" spans="1:9" ht="52.2" customHeight="1">
+      <c r="A13" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="9">
+        <v>4705066128</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="10">
+        <v>46527</v>
+      </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A1:C1">
+    <cfRule type="duplicateValues" dxfId="1" priority="1" stopIfTrue="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/сертификаты.xlsx
+++ b/сертификаты.xlsx
@@ -35,10 +35,6 @@
     <t>UKAS (IAF)</t>
   </si>
   <si>
-    <t xml:space="preserve">
-Название компании</t>
-  </si>
-  <si>
     <t>Организационно-правовая форма</t>
   </si>
   <si>
@@ -104,6 +100,10 @@
   </si>
   <si>
     <t>АРТЕКС</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Название компании
+</t>
   </si>
 </sst>
 </file>
@@ -186,7 +186,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -200,45 +200,29 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -527,29 +511,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="24.6640625" customWidth="1"/>
-    <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="1" max="1" width="28.33203125" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" customWidth="1"/>
     <col min="3" max="3" width="20.77734375" customWidth="1"/>
-    <col min="4" max="4" width="22" customWidth="1"/>
-    <col min="5" max="5" width="18.21875" customWidth="1"/>
+    <col min="4" max="4" width="25" customWidth="1"/>
+    <col min="5" max="5" width="22.5546875" customWidth="1"/>
     <col min="6" max="6" width="23.5546875" customWidth="1"/>
     <col min="7" max="7" width="19.88671875" customWidth="1"/>
     <col min="8" max="8" width="26.88671875" customWidth="1"/>
     <col min="9" max="9" width="27.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="27.6">
+    <row r="1" spans="1:9" ht="36" customHeight="1">
       <c r="A1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>3</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -558,32 +540,32 @@
         <v>1</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>5</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>6</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="8">
+        <v>474885885</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="6">
-        <v>474885885</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="7">
+      <c r="F2" s="9">
         <v>45802</v>
       </c>
       <c r="G2" s="1"/>
@@ -591,20 +573,20 @@
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="9">
+      <c r="C3" s="6">
         <v>6345011371</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="9" t="s">
-        <v>9</v>
+      <c r="E3" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="F3" s="10">
         <v>46602</v>
@@ -614,20 +596,20 @@
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="C4" s="6">
+        <v>6345011371</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="C4" s="9">
-        <v>6345011371</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>12</v>
       </c>
       <c r="F4" s="10">
         <v>46466</v>
@@ -637,20 +619,20 @@
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="9">
+      <c r="A5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="6">
         <v>7743696750</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="9" t="s">
-        <v>9</v>
+      <c r="E5" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="F5" s="10">
         <v>46448</v>
@@ -660,20 +642,20 @@
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" ht="52.2" customHeight="1">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="6">
+        <v>7743696750</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="9">
-        <v>7743696750</v>
-      </c>
-      <c r="D6" s="9" t="s">
+      <c r="E6" s="6" t="s">
         <v>14</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>15</v>
       </c>
       <c r="F6" s="10">
         <v>46485</v>
@@ -683,20 +665,20 @@
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="9">
+      <c r="A7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="6">
         <v>4632126284</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="9" t="s">
-        <v>9</v>
+      <c r="E7" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="F7" s="10">
         <v>46001</v>
@@ -706,20 +688,20 @@
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="9" t="s">
+      <c r="A8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="6">
+        <v>7813111341</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>8</v>
-      </c>
-      <c r="C8" s="9">
-        <v>7813111341</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>9</v>
       </c>
       <c r="F8" s="10">
         <v>46011</v>
@@ -729,20 +711,20 @@
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="9">
+      <c r="A9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="6">
         <v>3435900531</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="9" t="s">
-        <v>9</v>
+      <c r="E9" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="F9" s="10">
         <v>46327</v>
@@ -752,20 +734,20 @@
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:9" ht="57" customHeight="1">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="9">
+      <c r="C10" s="6">
         <v>1328028538</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="9" t="s">
-        <v>9</v>
+      <c r="E10" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="F10" s="10">
         <v>46587</v>
@@ -775,20 +757,20 @@
       <c r="I10" s="1"/>
     </row>
     <row r="11" spans="1:9" ht="57.6">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="C11" s="6">
+        <v>1328028538</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="9">
-        <v>1328028538</v>
-      </c>
-      <c r="D11" s="9" t="s">
+      <c r="E11" s="6" t="s">
         <v>21</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>22</v>
       </c>
       <c r="F11" s="10">
         <v>45801</v>
@@ -798,20 +780,20 @@
       <c r="I11" s="1"/>
     </row>
     <row r="12" spans="1:9" ht="43.2">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="6">
+        <v>7801319747</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>23</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="9">
-        <v>7801319747</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>24</v>
       </c>
       <c r="F12" s="10">
         <v>45800</v>
@@ -821,20 +803,20 @@
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:9" ht="52.2" customHeight="1">
-      <c r="A13" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="9">
+      <c r="A13" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="6">
         <v>4705066128</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="6" t="s">
         <v>14</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>15</v>
       </c>
       <c r="F13" s="10">
         <v>46527</v>
@@ -845,8 +827,9 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:C1">
-    <cfRule type="duplicateValues" dxfId="1" priority="1" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1" stopIfTrue="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/сертификаты.xlsx
+++ b/сертификаты.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IlyaMatveevskij\OneDrive\Рабочий стол\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\сайт\сайт2\Сайт на практику\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -102,8 +102,7 @@
     <t>АРТЕКС</t>
   </si>
   <si>
-    <t xml:space="preserve">Название компании
-</t>
+    <t>Название компании</t>
   </si>
 </sst>
 </file>
@@ -186,7 +185,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -206,23 +205,49 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -511,7 +536,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
@@ -573,22 +600,22 @@
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="11">
         <v>6345011371</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="12">
         <v>46602</v>
       </c>
       <c r="G3" s="1"/>
@@ -596,22 +623,22 @@
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="11">
         <v>6345011371</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="12">
         <v>46466</v>
       </c>
       <c r="G4" s="1"/>
@@ -619,22 +646,22 @@
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="11">
         <v>7743696750</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="12">
         <v>46448</v>
       </c>
       <c r="G5" s="1"/>
@@ -645,19 +672,19 @@
       <c r="A6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="11">
         <v>7743696750</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="12">
         <v>46485</v>
       </c>
       <c r="G6" s="1"/>
@@ -665,22 +692,22 @@
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="11">
         <v>4632126284</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="12">
         <v>46001</v>
       </c>
       <c r="G7" s="1"/>
@@ -688,22 +715,22 @@
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="11">
         <v>7813111341</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="12">
         <v>46011</v>
       </c>
       <c r="G8" s="1"/>
@@ -711,22 +738,22 @@
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="11">
         <v>3435900531</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="12">
         <v>46327</v>
       </c>
       <c r="G9" s="1"/>
@@ -734,68 +761,68 @@
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:9" ht="57" customHeight="1">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="11">
         <v>1328028538</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="12">
         <v>46587</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" ht="57.6">
-      <c r="A11" s="5" t="s">
+    <row r="11" spans="1:9" ht="43.2">
+      <c r="A11" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="11">
         <v>1328028538</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="11" t="s">
         <v>20</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11" s="12">
         <v>45801</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" ht="43.2">
-      <c r="A12" s="5" t="s">
+    <row r="12" spans="1:9" ht="28.8">
+      <c r="A12" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="11">
         <v>7801319747</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F12" s="12">
         <v>45800</v>
       </c>
       <c r="G12" s="1"/>
@@ -803,22 +830,22 @@
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:9" ht="52.2" customHeight="1">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="11">
         <v>4705066128</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="10">
+      <c r="F13" s="12">
         <v>46527</v>
       </c>
       <c r="G13" s="1"/>

--- a/сертификаты.xlsx
+++ b/сертификаты.xlsx
@@ -227,27 +227,7 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
